--- a/data/Litecoin/Litecoin20170701.xlsx
+++ b/data/Litecoin/Litecoin20170701.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182">
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
